--- a/database_structure.xlsx
+++ b/database_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PuntoDeVenta\PuntoDeVenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698D5EE6-102B-4A21-8F85-D50B58290958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258A45AC-AA7C-4935-9BC4-C47A1A64D546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D13D7B1-C787-497E-B2BD-E036B895E4F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="58">
   <si>
     <t>Users</t>
   </si>
@@ -56,24 +56,12 @@
     <t>product_id</t>
   </si>
   <si>
-    <t>product_name</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
-    <t>product_purchase_price</t>
-  </si>
-  <si>
-    <t>product_selling_price</t>
-  </si>
-  <si>
     <t>double</t>
   </si>
   <si>
-    <t>product_sale_type</t>
-  </si>
-  <si>
     <t>🔑</t>
   </si>
   <si>
@@ -92,45 +80,24 @@
     <t>category_id</t>
   </si>
   <si>
-    <t>category_name</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>user_password</t>
-  </si>
-  <si>
     <t>SaleTypes</t>
   </si>
   <si>
     <t>sale_type_id</t>
   </si>
   <si>
-    <t>sale_type_name</t>
-  </si>
-  <si>
-    <t>product_brand</t>
-  </si>
-  <si>
     <t>Brands</t>
   </si>
   <si>
     <t>brand_id</t>
   </si>
   <si>
-    <t>brand_name</t>
-  </si>
-  <si>
     <t>Providers</t>
   </si>
   <si>
     <t>provider_id</t>
   </si>
   <si>
-    <t>provider_name</t>
-  </si>
-  <si>
     <t>ProductCategories</t>
   </si>
   <si>
@@ -158,58 +125,91 @@
     <t>📅</t>
   </si>
   <si>
-    <t>ticket_date</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>ticket_name</t>
   </si>
   <si>
-    <t>ticket_status</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>status_id</t>
   </si>
   <si>
-    <t>status_name</t>
-  </si>
-  <si>
-    <t>product_quantity</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
     <t>unit_id</t>
   </si>
   <si>
-    <t>unit_name</t>
-  </si>
-  <si>
-    <t>product_sales_unit</t>
-  </si>
-  <si>
-    <t>TicketProducts</t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
     <t>sale_id</t>
   </si>
   <si>
-    <t>sale_total</t>
-  </si>
-  <si>
-    <t>sale_amount_received</t>
-  </si>
-  <si>
-    <t>product_amount</t>
+    <t>total_amount</t>
+  </si>
+  <si>
+    <t>purchase_price</t>
+  </si>
+  <si>
+    <t>selling_price</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>product_price</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>amount_received</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>PaymentMethods</t>
+  </si>
+  <si>
+    <t>paymentMethod_id</t>
+  </si>
+  <si>
+    <t>MoneyOutflows</t>
+  </si>
+  <si>
+    <t>money_outflow_id</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>MoneyInflows</t>
+  </si>
+  <si>
+    <t>money_inflow_id</t>
+  </si>
+  <si>
+    <t>stock_id</t>
+  </si>
+  <si>
+    <t>Stocks</t>
   </si>
 </sst>
 </file>
@@ -257,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,18 +344,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF88C300"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -480,217 +504,204 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1033,567 +1044,741 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBA91B5-0FA1-4471-9E80-E112C532A992}">
-  <dimension ref="A3:S28"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="3.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" customWidth="1"/>
     <col min="13" max="13" width="4.140625" customWidth="1"/>
     <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" customWidth="1"/>
     <col min="17" max="17" width="3.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" customWidth="1"/>
+    <col min="20" max="20" width="4" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" s="74" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="E4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="I4" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61"/>
-      <c r="M4" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="I4" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+      <c r="M4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
+      <c r="Q4" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="76"/>
+      <c r="S4" s="77"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="44" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6"/>
       <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="N6" s="66" t="s">
+        <v>29</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>8</v>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="R7" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
+      <c r="M8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="R9" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="M8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="66" t="s">
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="G11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="79"/>
+      <c r="S11" s="80"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="57"/>
-      <c r="O10" s="58"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E11" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>7</v>
+      <c r="G12" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="Q12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
+      <c r="Q13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
+      <c r="R13" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="I14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="44" t="s">
-        <v>29</v>
+      <c r="E14" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="I14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
+      <c r="Q14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14" s="71"/>
-      <c r="O14" s="72"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>22</v>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="55" t="s">
-        <v>38</v>
+      <c r="M15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M16" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="6" t="s">
+      <c r="M16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+    </row>
+    <row r="18" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="I18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="69"/>
+      <c r="O18" s="70"/>
+    </row>
+    <row r="19" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
-      <c r="M17" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="I18" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="K19" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M20" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" s="75"/>
-      <c r="O20" s="76"/>
-    </row>
-    <row r="21" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
+      <c r="M20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
-      <c r="I22" s="45" t="s">
+      <c r="E22" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-      <c r="M22" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>49</v>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="I22" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
+    </row>
+    <row r="23" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="44" t="s">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="34"/>
+      <c r="O23" s="35"/>
     </row>
     <row r="24" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M24" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O24" s="5" t="s">
+      <c r="M24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M25" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="M26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="83"/>
+      <c r="G27" s="84"/>
+      <c r="I27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="I27" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27" s="1" t="s">
+      <c r="N27" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="10" t="s">
+      <c r="E28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>5</v>
       </c>
       <c r="K28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="29" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I8:K8"/>
     <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M14:O14"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M23:O23"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
